--- a/data/2025년 1학기 정규 시간표.xlsx
+++ b/data/2025년 1학기 정규 시간표.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -53,7 +57,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,18 +432,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="35" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="30" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -93915,6 +93921,7 @@
       <c r="N1521" t="inlineStr"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>